--- a/Actors and UseCases.xlsx
+++ b/Actors and UseCases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Admin</t>
   </si>
@@ -88,13 +88,16 @@
   </si>
   <si>
     <t>Emre</t>
+  </si>
+  <si>
+    <t>ASSINGMNETS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,8 +146,17 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,8 +208,13 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -220,8 +237,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -231,8 +263,9 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -252,14 +285,18 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="%40 - Vurgu3" xfId="5" builtinId="39"/>
     <cellStyle name="%60 - Vurgu2" xfId="4" builtinId="36"/>
     <cellStyle name="%60 - Vurgu4" xfId="6" builtinId="44"/>
     <cellStyle name="%60 - Vurgu5" xfId="7" builtinId="48"/>
     <cellStyle name="%60 - Vurgu6" xfId="8" builtinId="52"/>
     <cellStyle name="Çıkış" xfId="3" builtinId="21"/>
+    <cellStyle name="İşaretli Hücre" xfId="9" builtinId="23"/>
     <cellStyle name="İyi" xfId="1" builtinId="26"/>
     <cellStyle name="Kötü" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,7 +580,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +593,7 @@
     <col min="11" max="11" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="46.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -569,8 +606,11 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>

--- a/Actors and UseCases.xlsx
+++ b/Actors and UseCases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Admin</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Create New Survey</t>
   </si>
   <si>
-    <t>Edit Own Survey</t>
-  </si>
-  <si>
     <t>Fill A Survey</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>Search User</t>
   </si>
   <si>
-    <t>Block User</t>
-  </si>
-  <si>
     <t>Ban User</t>
   </si>
   <si>
@@ -91,6 +85,21 @@
   </si>
   <si>
     <t>ASSINGMNETS</t>
+  </si>
+  <si>
+    <t>Favorite(Save) Survey</t>
+  </si>
+  <si>
+    <t>Unfavorite Survey</t>
+  </si>
+  <si>
+    <t>Is Written?</t>
+  </si>
+  <si>
+    <t>Delete Survey(Own)</t>
+  </si>
+  <si>
+    <t>Edit Survey(Own)</t>
   </si>
 </sst>
 </file>
@@ -156,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +220,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
       </patternFill>
     </fill>
   </fills>
@@ -253,7 +267,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -264,8 +278,9 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -288,8 +303,10 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="9" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="10" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="11">
     <cellStyle name="%40 - Vurgu3" xfId="5" builtinId="39"/>
     <cellStyle name="%60 - Vurgu2" xfId="4" builtinId="36"/>
     <cellStyle name="%60 - Vurgu4" xfId="6" builtinId="44"/>
@@ -300,6 +317,7 @@
     <cellStyle name="İyi" xfId="1" builtinId="26"/>
     <cellStyle name="Kötü" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vurgu6" xfId="10" builtinId="49"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -577,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,6 +608,7 @@
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -607,7 +626,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -618,9 +640,10 @@
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="9"/>
+      <c r="F2" s="12"/>
       <c r="J2" s="9"/>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -631,9 +654,10 @@
       <c r="C3" s="6"/>
       <c r="D3" s="5"/>
       <c r="E3" s="8"/>
+      <c r="F3" s="12"/>
       <c r="J3" s="10"/>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -644,32 +668,35 @@
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="9"/>
+      <c r="F4" s="12"/>
       <c r="J4" s="8"/>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="10"/>
+      <c r="F5" s="13"/>
       <c r="J5" s="7"/>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="8"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -679,6 +706,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
       <c r="E7" s="9"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -688,33 +716,37 @@
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
       <c r="E8" s="8"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="10"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="10"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="7"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -724,42 +756,67 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="8"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="7"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="9"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Actors and UseCases.xlsx
+++ b/Actors and UseCases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Admin</t>
   </si>
@@ -72,18 +72,6 @@
     <t>Ban User</t>
   </si>
   <si>
-    <t>Umut</t>
-  </si>
-  <si>
-    <t>Berkay</t>
-  </si>
-  <si>
-    <t>Gözde</t>
-  </si>
-  <si>
-    <t>Emre</t>
-  </si>
-  <si>
     <t>ASSINGMNETS</t>
   </si>
   <si>
@@ -93,13 +81,25 @@
     <t>Unfavorite Survey</t>
   </si>
   <si>
-    <t>Is Written?</t>
-  </si>
-  <si>
     <t>Delete Survey(Own)</t>
   </si>
   <si>
     <t>Edit Survey(Own)</t>
+  </si>
+  <si>
+    <t>Is Written? USE CASES</t>
+  </si>
+  <si>
+    <t>UMUT</t>
+  </si>
+  <si>
+    <t>BERKAY</t>
+  </si>
+  <si>
+    <t>GÖZDE</t>
+  </si>
+  <si>
+    <t>EMRE</t>
   </si>
 </sst>
 </file>
@@ -296,15 +296,23 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="9" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="%40 - Vurgu3" xfId="5" builtinId="39"/>
@@ -597,226 +605,308 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="46.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="K2" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="K3" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="K4" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="12"/>
-      <c r="J2" s="9"/>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="G5" s="9"/>
+      <c r="K5" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="12"/>
-      <c r="J3" s="10"/>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="12"/>
-      <c r="J4" s="8"/>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="13"/>
-      <c r="J5" s="7"/>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="12"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="12"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="12"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="12"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="12"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="12"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="12"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="13"/>
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="13"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
